--- a/pyramid_voxels.xlsx
+++ b/pyramid_voxels.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,10 +462,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -473,7 +473,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -484,112 +484,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>0</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>0</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
